--- a/DGD ENTERPRISESattendance.xlsx
+++ b/DGD ENTERPRISESattendance.xlsx
@@ -15,15 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>DGD ENTERPRISES</t>
   </si>
   <si>
+    <t>Daily Wages</t>
+  </si>
+  <si>
     <t>Employee Attendance Report</t>
   </si>
   <si>
-    <t>January-2020</t>
+    <t>February-2020</t>
   </si>
   <si>
     <t>S.N.</t>
@@ -32,97 +35,91 @@
     <t>Employee Name</t>
   </si>
   <si>
-    <t xml:space="preserve">1 (Wed) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (Thu) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (Fri) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (Sat) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (Sun) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (Mon) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (Tue) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (Wed) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (Thu) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (Fri) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (Sat) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (Sun) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (Mon) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (Tue) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 (Wed) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (Thu) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 (Fri) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 (Sat) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">19 (Sun) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 (Mon) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">21 (Tue) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">22 (Wed) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">23 (Thu) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">24 (Fri) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 (Sat) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">26 (Sun) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">27 (Mon) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">28 (Tue) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">29 (Wed) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">30 (Thu) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">31 (Fri) </t>
+    <t xml:space="preserve">1 (Sat) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (Sun) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (Mon) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (Tue) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (Wed) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (Thu) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (Fri) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (Sat) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (Sun) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (Mon) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (Tue) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (Wed) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (Thu) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (Fri) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 (Sat) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (Sun) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 (Mon) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 (Tue) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 (Wed) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 (Thu) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 (Fri) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 (Sat) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 (Sun) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 (Mon) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 (Tue) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 (Wed) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 (Thu) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 (Fri) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 (Sat) </t>
   </si>
   <si>
     <t>Total</t>
@@ -131,16 +128,28 @@
     <t>MR. AKSHAY M NAIR</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>W</t>
+    <t>MR. PRAVIN RAVINDRA ROY</t>
+  </si>
+  <si>
+    <t>MR. MADHAV EX SIR</t>
+  </si>
+  <si>
+    <t>MR. RAJA RAM SALVI</t>
+  </si>
+  <si>
+    <t>MR. ABHIJEET RAMESH RAWLE</t>
+  </si>
+  <si>
+    <t>MR. TEST M NAIR</t>
+  </si>
+  <si>
+    <t>MR. RANDOM M NAIR</t>
+  </si>
+  <si>
+    <t>MR. ANKITA A NAIR</t>
   </si>
 </sst>
 </file>
@@ -479,15 +488,19 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AF14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="5.855713" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="30.563965" bestFit="true" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,10 +535,8 @@
       <c r="AD1"/>
       <c r="AE1"/>
       <c r="AF1"/>
-      <c r="AG1"/>
-      <c r="AH1"/>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -560,10 +571,8 @@
       <c r="AD2"/>
       <c r="AE2"/>
       <c r="AF2"/>
-      <c r="AG2"/>
-      <c r="AH2"/>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -598,223 +607,1030 @@
       <c r="AD3"/>
       <c r="AE3"/>
       <c r="AF3"/>
-      <c r="AG3"/>
-      <c r="AH3"/>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:32">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+    </row>
+    <row r="5" spans="1:32">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F5" t="s">
         <v>9</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G5" t="s">
         <v>10</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H5" t="s">
         <v>11</v>
       </c>
-      <c r="J4" t="s">
+      <c r="I5" t="s">
         <v>12</v>
       </c>
-      <c r="K4" t="s">
+      <c r="J5" t="s">
         <v>13</v>
       </c>
-      <c r="L4" t="s">
+      <c r="K5" t="s">
         <v>14</v>
       </c>
-      <c r="M4" t="s">
+      <c r="L5" t="s">
         <v>15</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M5" t="s">
         <v>16</v>
       </c>
-      <c r="O4" t="s">
+      <c r="N5" t="s">
         <v>17</v>
       </c>
-      <c r="P4" t="s">
+      <c r="O5" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="P5" t="s">
         <v>19</v>
       </c>
-      <c r="R4" t="s">
+      <c r="Q5" t="s">
         <v>20</v>
       </c>
-      <c r="S4" t="s">
+      <c r="R5" t="s">
         <v>21</v>
       </c>
-      <c r="T4" t="s">
+      <c r="S5" t="s">
         <v>22</v>
       </c>
-      <c r="U4" t="s">
+      <c r="T5" t="s">
         <v>23</v>
       </c>
-      <c r="V4" t="s">
+      <c r="U5" t="s">
         <v>24</v>
       </c>
-      <c r="W4" t="s">
+      <c r="V5" t="s">
         <v>25</v>
       </c>
-      <c r="X4" t="s">
+      <c r="W5" t="s">
         <v>26</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="X5" t="s">
         <v>27</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="Y5" t="s">
         <v>28</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="Z5" t="s">
         <v>29</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AA5" t="s">
         <v>30</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AB5" t="s">
         <v>31</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AC5" t="s">
         <v>32</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AD5" t="s">
         <v>33</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AE5" t="s">
         <v>34</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AF5" t="s">
         <v>35</v>
       </c>
-      <c r="AH4" t="s">
+    </row>
+    <row r="6" spans="1:32">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
         <v>36</v>
       </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>37</v>
+      </c>
+      <c r="R6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S6" t="s">
+        <v>37</v>
+      </c>
+      <c r="T6" t="s">
+        <v>37</v>
+      </c>
+      <c r="U6" t="s">
+        <v>37</v>
+      </c>
+      <c r="V6" t="s">
+        <v>37</v>
+      </c>
+      <c r="W6" t="s">
+        <v>37</v>
+      </c>
+      <c r="X6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:34">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="7" spans="1:32">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
         <v>38</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T7" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" t="s">
+        <v>37</v>
+      </c>
+      <c r="V7" t="s">
+        <v>37</v>
+      </c>
+      <c r="W7" t="s">
+        <v>37</v>
+      </c>
+      <c r="X7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
         <v>39</v>
       </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S8" t="s">
+        <v>37</v>
+      </c>
+      <c r="T8" t="s">
+        <v>37</v>
+      </c>
+      <c r="U8" t="s">
+        <v>37</v>
+      </c>
+      <c r="V8" t="s">
+        <v>37</v>
+      </c>
+      <c r="W8" t="s">
+        <v>37</v>
+      </c>
+      <c r="X8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
         <v>40</v>
       </c>
-      <c r="G5" t="s">
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>37</v>
+      </c>
+      <c r="R9" t="s">
+        <v>37</v>
+      </c>
+      <c r="S9" t="s">
+        <v>37</v>
+      </c>
+      <c r="T9" t="s">
+        <v>37</v>
+      </c>
+      <c r="U9" t="s">
+        <v>37</v>
+      </c>
+      <c r="V9" t="s">
+        <v>37</v>
+      </c>
+      <c r="W9" t="s">
+        <v>37</v>
+      </c>
+      <c r="X9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
         <v>41</v>
       </c>
-      <c r="H5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" t="s">
-        <v>40</v>
-      </c>
-      <c r="O5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>39</v>
-      </c>
-      <c r="R5" t="s">
-        <v>39</v>
-      </c>
-      <c r="S5" t="s">
-        <v>39</v>
-      </c>
-      <c r="T5" t="s">
-        <v>40</v>
-      </c>
-      <c r="U5" t="s">
-        <v>40</v>
-      </c>
-      <c r="V5" t="s">
-        <v>40</v>
-      </c>
-      <c r="W5" t="s">
-        <v>40</v>
-      </c>
-      <c r="X5" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH5">
-        <v>5</v>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>37</v>
+      </c>
+      <c r="R10" t="s">
+        <v>37</v>
+      </c>
+      <c r="S10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T10" t="s">
+        <v>37</v>
+      </c>
+      <c r="U10" t="s">
+        <v>37</v>
+      </c>
+      <c r="V10" t="s">
+        <v>37</v>
+      </c>
+      <c r="W10" t="s">
+        <v>37</v>
+      </c>
+      <c r="X10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>37</v>
+      </c>
+      <c r="R11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S11" t="s">
+        <v>37</v>
+      </c>
+      <c r="T11" t="s">
+        <v>37</v>
+      </c>
+      <c r="U11" t="s">
+        <v>37</v>
+      </c>
+      <c r="V11" t="s">
+        <v>37</v>
+      </c>
+      <c r="W11" t="s">
+        <v>37</v>
+      </c>
+      <c r="X11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" t="s">
+        <v>37</v>
+      </c>
+      <c r="N12" t="s">
+        <v>37</v>
+      </c>
+      <c r="O12" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>37</v>
+      </c>
+      <c r="R12" t="s">
+        <v>37</v>
+      </c>
+      <c r="S12" t="s">
+        <v>37</v>
+      </c>
+      <c r="T12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U12" t="s">
+        <v>37</v>
+      </c>
+      <c r="V12" t="s">
+        <v>37</v>
+      </c>
+      <c r="W12" t="s">
+        <v>37</v>
+      </c>
+      <c r="X12" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N13" t="s">
+        <v>37</v>
+      </c>
+      <c r="O13" t="s">
+        <v>37</v>
+      </c>
+      <c r="P13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>37</v>
+      </c>
+      <c r="R13" t="s">
+        <v>37</v>
+      </c>
+      <c r="S13" t="s">
+        <v>37</v>
+      </c>
+      <c r="T13" t="s">
+        <v>37</v>
+      </c>
+      <c r="U13" t="s">
+        <v>37</v>
+      </c>
+      <c r="V13" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" t="s">
+        <v>37</v>
+      </c>
+      <c r="X13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" t="s">
+        <v>37</v>
+      </c>
+      <c r="N14" t="s">
+        <v>37</v>
+      </c>
+      <c r="O14" t="s">
+        <v>37</v>
+      </c>
+      <c r="P14" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>37</v>
+      </c>
+      <c r="R14" t="s">
+        <v>37</v>
+      </c>
+      <c r="S14" t="s">
+        <v>37</v>
+      </c>
+      <c r="T14" t="s">
+        <v>37</v>
+      </c>
+      <c r="U14" t="s">
+        <v>37</v>
+      </c>
+      <c r="V14" t="s">
+        <v>37</v>
+      </c>
+      <c r="W14" t="s">
+        <v>37</v>
+      </c>
+      <c r="X14" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:AH2"/>
-    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A2:AF2"/>
+    <mergeCell ref="A3:AF3"/>
+    <mergeCell ref="A4:AF4"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
